--- a/output/StructureDefinition-identifier-status.xlsx
+++ b/output/StructureDefinition-identifier-status.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/StructureDefinition/identifier-status</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/identifier-status</t>
   </si>
   <si>
     <t>Version</t>

--- a/output/StructureDefinition-identifier-status.xlsx
+++ b/output/StructureDefinition-identifier-status.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NatlDir Identifier Status</t>
+    <t>NatlDirEndpointQry Identifier Status</t>
   </si>
   <si>
     <t>Status</t>

--- a/output/StructureDefinition-identifier-status.xlsx
+++ b/output/StructureDefinition-identifier-status.xlsx
@@ -363,7 +363,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vhdir/ValueSet/identifierstatus</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/IdentifierStatusVS</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.97265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.44921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-identifier-status.xlsx
+++ b/output/StructureDefinition-identifier-status.xlsx
@@ -702,7 +702,7 @@
   <cols>
     <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.44140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
@@ -719,23 +719,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="64.44921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-identifier-status.xlsx
+++ b/output/StructureDefinition-identifier-status.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
